--- a/trunk/documents/thesis/Data/benchmark.xlsx
+++ b/trunk/documents/thesis/Data/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>CG</t>
   </si>
@@ -93,28 +93,22 @@
     <t>|</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>TAUCS</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>YModel</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Neptune</t>
   </si>
 </sst>
 </file>
@@ -174,14 +168,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -195,6 +189,737 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1000"/>
+              <a:t>Vertices Vs Seconds</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1000"/>
+              <a:t>Laplacian Smoothing Perfomance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31597366693034235"/>
+          <c:y val="3.0585605980328879E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8933563581326832E-2"/>
+          <c:y val="3.0980971097003741E-2"/>
+          <c:w val="0.87044997792191015"/>
+          <c:h val="0.83517288493711073"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.430999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.47499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BICGSTAB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GMRES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.925999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUPERLU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.20599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169.91800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAUCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.70099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHOLMOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.803999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.48500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152582400"/>
+        <c:axId val="152584576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152582400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="800"/>
+                  <a:t>Vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152584576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152584576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="800"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4520484547943628E-3"/>
+              <c:y val="0.46071234759377178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152582400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77723101173256925"/>
+          <c:y val="0.36986185902684793"/>
+          <c:w val="0.18353621299072104"/>
+          <c:h val="0.43463992473211505"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>930729</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P9:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -501,27 +1226,27 @@
     <col min="7" max="7" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -530,27 +1255,27 @@
         <v>22</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -580,61 +1305,61 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AC2" s="1"/>
@@ -648,15 +1373,15 @@
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="AA3" s="6"/>
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -669,79 +1394,79 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="6">
+      <c r="U4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="W4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="W4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Y4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="Y4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="5">
         <v>0.05</v>
       </c>
-      <c r="AA4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="6">
+      <c r="AA4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0.5</v>
       </c>
       <c r="AC4" s="1"/>
@@ -755,15 +1480,15 @@
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="AA5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="AA5" s="6"/>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -776,79 +1501,79 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>538</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1608</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1072</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.83</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5">
         <v>0.63200000000000001</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5">
         <v>0.68799999999999994</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="S6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="5">
         <v>0.63200000000000001</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="6">
+      <c r="U6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="W6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="W6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="5">
         <v>0.79</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="6">
+      <c r="Y6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="5">
         <v>0.62</v>
       </c>
-      <c r="AA6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="6">
+      <c r="AA6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="5">
         <v>0.627</v>
       </c>
       <c r="AC6" s="1"/>
@@ -859,21 +1584,21 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="AA7" s="6"/>
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -886,79 +1611,79 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>4770</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>14304</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>9536</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>19.599</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5">
         <v>16.436</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
         <v>16.925999999999998</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="O8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="5">
         <v>16.064</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="Q8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="5">
         <v>16.651</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="5">
         <v>17.611000000000001</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="5">
         <v>16.881</v>
       </c>
-      <c r="W8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="6">
+      <c r="W8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="5">
         <v>17.949000000000002</v>
       </c>
-      <c r="Y8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="6">
+      <c r="Y8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="5">
         <v>18.228999999999999</v>
       </c>
-      <c r="AA8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="6">
+      <c r="AA8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="5">
         <v>16.555</v>
       </c>
       <c r="AC8" s="1"/>
@@ -969,21 +1694,21 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="AA9" s="6"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -996,79 +1721,79 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>10002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>30000</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>20000</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>33.430999999999997</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5">
         <v>27.76</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="M10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5">
         <v>29.91</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="O10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5">
         <v>28.541</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="Q10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5">
         <v>29.721</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="S10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="5">
         <v>31.425000000000001</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="6">
+      <c r="U10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="5">
         <v>29.530999999999999</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="6">
+      <c r="W10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="5">
         <v>30.803999999999998</v>
       </c>
-      <c r="Y10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="6">
+      <c r="Y10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="5">
         <v>30.513000000000002</v>
       </c>
-      <c r="AA10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="6">
+      <c r="AA10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="5">
         <v>30.968</v>
       </c>
       <c r="AC10" s="1"/>
@@ -1079,21 +1804,21 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="AA11" s="6"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1106,79 +1831,79 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>28052</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>84168</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>56112</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>133.97399999999999</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5">
         <v>136.46199999999999</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="5">
         <v>136.38499999999999</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="O12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5">
         <v>133.20599999999999</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="5">
         <v>139.983</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="5">
         <v>140.79</v>
       </c>
-      <c r="U12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="6">
+      <c r="U12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="5">
         <v>142.87</v>
       </c>
-      <c r="W12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="6">
+      <c r="W12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="5">
         <v>142.762</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="6">
+      <c r="Y12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="5">
         <v>146.21899999999999</v>
       </c>
-      <c r="AA12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB12" s="6">
+      <c r="AA12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="5">
         <v>142.96100000000001</v>
       </c>
       <c r="AC12" s="1"/>
@@ -1189,21 +1914,21 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="AA13" s="6"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1216,79 +1941,79 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>34594</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>103776</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>69184</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>194.47499999999999</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5">
         <v>174.88</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="M14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5">
         <v>175.798</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="O14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5">
         <v>169.91800000000001</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="Q14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="5">
         <v>179.88200000000001</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="S14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="5">
         <v>174.37299999999999</v>
       </c>
-      <c r="U14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="6">
+      <c r="U14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="5">
         <v>181.70099999999999</v>
       </c>
-      <c r="W14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="6">
+      <c r="W14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="5">
         <v>183.48500000000001</v>
       </c>
-      <c r="Y14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="Y14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="5">
         <v>183.56</v>
       </c>
-      <c r="AA14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AA14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="5">
         <v>185.988</v>
       </c>
       <c r="AC14" s="1"/>
@@ -1299,106 +2024,213 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="2">
         <v>2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>17.401</v>
       </c>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>18.422999999999998</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="2">
         <v>4</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>18.460999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>18.859000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H23" s="2">
         <v>6</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>18.992999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H24" s="2">
         <v>7</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>17.77</v>
       </c>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H25" s="2">
         <v>8</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>18.381</v>
       </c>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H26" s="2">
         <v>9</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>20.065000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>20.335000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="J28" s="6">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="4:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="5">
         <f>SUM(J18:J27)</f>
         <v>185.98799999999997</v>
       </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1410,198 +2242,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="4">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4">
+        <v>538</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B5" s="4">
+        <v>4770</v>
+      </c>
+      <c r="C5" s="5">
+        <v>19.599</v>
+      </c>
+      <c r="D5" s="5">
+        <v>16.436</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16.925999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16.064</v>
+      </c>
+      <c r="G5" s="5">
+        <v>16.881</v>
+      </c>
+      <c r="H5" s="5">
+        <v>17.949000000000002</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6" s="4">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>33.430999999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>27.76</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29.91</v>
+      </c>
+      <c r="F6" s="5">
+        <v>28.541</v>
+      </c>
+      <c r="G6" s="5">
+        <v>29.530999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30.803999999999998</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>19.599</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16.436</v>
-      </c>
-      <c r="D5" s="4">
-        <v>16.925999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>16.064</v>
-      </c>
-      <c r="F5" s="4">
-        <v>16.651</v>
-      </c>
-      <c r="G5" s="4">
-        <v>17.611000000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <v>16.881</v>
-      </c>
-      <c r="I5" s="4">
-        <v>17.949000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>33.430999999999997</v>
-      </c>
-      <c r="C6" s="4">
-        <v>27.76</v>
-      </c>
-      <c r="D6" s="4">
-        <v>29.91</v>
-      </c>
-      <c r="E6" s="4">
-        <v>28.541</v>
-      </c>
-      <c r="F6" s="4">
-        <v>29.721</v>
-      </c>
-      <c r="G6" s="4">
-        <v>31.425000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>29.530999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>30.803999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
+        <v>28052</v>
+      </c>
+      <c r="C7" s="5">
         <v>133.97399999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="5">
         <v>136.46199999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="5">
         <v>136.38499999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="5">
         <v>133.20599999999999</v>
       </c>
-      <c r="F7" s="4">
-        <v>139.983</v>
-      </c>
-      <c r="G7" s="4">
-        <v>140.79</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="5">
         <v>142.87</v>
       </c>
-      <c r="I7" s="4">
+      <c r="H7" s="5">
         <v>142.762</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="4">
+        <v>34594</v>
+      </c>
+      <c r="C8" s="5">
         <v>194.47499999999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="5">
         <v>174.88</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="5">
         <v>175.798</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="5">
         <v>169.91800000000001</v>
       </c>
-      <c r="F8" s="4">
-        <v>179.88200000000001</v>
-      </c>
-      <c r="G8" s="4">
-        <v>174.37299999999999</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="5">
         <v>181.70099999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="H8" s="5">
         <v>183.48500000000001</v>
       </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
